--- a/src/test/testFiles/Students4.xlsx
+++ b/src/test/testFiles/Students4.xlsx
@@ -222,10 +222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F16" activeCellId="0" pane="topLeft" sqref="F16"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -236,98 +236,106 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="n">
+        <v>7640001</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="n">
+        <v>7640002</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="1" t="n">
+        <v>5656565</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>7640001</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>7640002</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>5656565</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>7640003</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>7640003</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>7640005</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
+        <v>7640006</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>7640005</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
@@ -336,104 +344,86 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>7640006</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
+        <v>7640007</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>7640007</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
+        <v>7640008</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>7640008</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="n">
+        <v>7640009</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>7640009</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>9999999</v>
-      </c>
-    </row>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="emaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaail@homail.com" ref="C5" r:id="rId1"/>
+    <hyperlink display="emaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaail@homail.com" ref="D3" r:id="rId1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
